--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H2">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N2">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O2">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P2">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q2">
-        <v>4.490581906722372</v>
+        <v>6.627127887263888</v>
       </c>
       <c r="R2">
-        <v>4.490581906722372</v>
+        <v>59.64415098537498</v>
       </c>
       <c r="S2">
-        <v>4.105321358644507E-05</v>
+        <v>4.74903745521755E-05</v>
       </c>
       <c r="T2">
-        <v>4.105321358644507E-05</v>
+        <v>4.74903745521755E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H3">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N3">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O3">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P3">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q3">
-        <v>3.577827821010165</v>
+        <v>5.289103324777779</v>
       </c>
       <c r="R3">
-        <v>3.577827821010165</v>
+        <v>47.601929923</v>
       </c>
       <c r="S3">
-        <v>3.270875195296523E-05</v>
+        <v>3.790201459995631E-05</v>
       </c>
       <c r="T3">
-        <v>3.270875195296523E-05</v>
+        <v>3.790201459995631E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H4">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N4">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O4">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P4">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q4">
-        <v>279.0814276420828</v>
+        <v>284.3974202911161</v>
       </c>
       <c r="R4">
-        <v>279.0814276420828</v>
+        <v>2559.576782620045</v>
       </c>
       <c r="S4">
-        <v>0.002551381913299277</v>
+        <v>0.002038008054326805</v>
       </c>
       <c r="T4">
-        <v>0.002551381913299277</v>
+        <v>0.002038008054326804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H5">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N5">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O5">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P5">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q5">
-        <v>766.7915251061942</v>
+        <v>868.2130549248488</v>
       </c>
       <c r="R5">
-        <v>766.7915251061942</v>
+        <v>7813.917494323639</v>
       </c>
       <c r="S5">
-        <v>0.007010061704772894</v>
+        <v>0.006221664025634605</v>
       </c>
       <c r="T5">
-        <v>0.007010061704772894</v>
+        <v>0.006221664025634605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H6">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N6">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O6">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P6">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q6">
-        <v>9.336448082151191</v>
+        <v>12.00962427658778</v>
       </c>
       <c r="R6">
-        <v>9.336448082151191</v>
+        <v>108.08661848929</v>
       </c>
       <c r="S6">
-        <v>8.535446078414112E-05</v>
+        <v>8.606164915304322E-05</v>
       </c>
       <c r="T6">
-        <v>8.535446078414112E-05</v>
+        <v>8.606164915304322E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H7">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N7">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O7">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P7">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q7">
-        <v>5.952681256457041</v>
+        <v>9.102891023630553</v>
       </c>
       <c r="R7">
-        <v>5.952681256457041</v>
+        <v>81.92601921267499</v>
       </c>
       <c r="S7">
-        <v>5.441982801104881E-05</v>
+        <v>6.52318336953556E-05</v>
       </c>
       <c r="T7">
-        <v>5.441982801104881E-05</v>
+        <v>6.52318336953556E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H8">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N8">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O8">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P8">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q8">
-        <v>4.742741375471913</v>
+        <v>7.265007103711111</v>
       </c>
       <c r="R8">
-        <v>4.742741375471913</v>
+        <v>65.3850639334</v>
       </c>
       <c r="S8">
-        <v>4.335847307028226E-05</v>
+        <v>5.206145321905089E-05</v>
       </c>
       <c r="T8">
-        <v>4.335847307028226E-05</v>
+        <v>5.206145321905089E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H9">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N9">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O9">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P9">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q9">
-        <v>369.9482200432352</v>
+        <v>390.6426386137734</v>
       </c>
       <c r="R9">
-        <v>369.9482200432352</v>
+        <v>3515.783747523961</v>
       </c>
       <c r="S9">
-        <v>0.003382092479067007</v>
+        <v>0.002799367318604383</v>
       </c>
       <c r="T9">
-        <v>0.003382092479067007</v>
+        <v>0.002799367318604383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H10">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N10">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O10">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P10">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q10">
-        <v>1016.453019658048</v>
+        <v>1192.560179721723</v>
       </c>
       <c r="R10">
-        <v>1016.453019658048</v>
+        <v>10733.04161749551</v>
       </c>
       <c r="S10">
-        <v>0.009292484533940104</v>
+        <v>0.008545953929731251</v>
       </c>
       <c r="T10">
-        <v>0.009292484533940104</v>
+        <v>0.008545953929731251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H11">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N11">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O11">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P11">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q11">
-        <v>12.37632464008895</v>
+        <v>16.49618098280911</v>
       </c>
       <c r="R11">
-        <v>12.37632464008895</v>
+        <v>148.465628845282</v>
       </c>
       <c r="S11">
-        <v>0.0001131452246988637</v>
+        <v>0.0001182125691371745</v>
       </c>
       <c r="T11">
-        <v>0.0001131452246988637</v>
+        <v>0.0001182125691371745</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H12">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N12">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O12">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P12">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q12">
-        <v>246.0602865361124</v>
+        <v>359.015040068575</v>
       </c>
       <c r="R12">
-        <v>246.0602865361124</v>
+        <v>3231.135360617175</v>
       </c>
       <c r="S12">
-        <v>0.002249500333840236</v>
+        <v>0.002572722152455727</v>
       </c>
       <c r="T12">
-        <v>0.002249500333840236</v>
+        <v>0.002572722152455726</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H13">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N13">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O13">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P13">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q13">
-        <v>196.0461599635318</v>
+        <v>286.5295003166001</v>
       </c>
       <c r="R13">
-        <v>196.0461599635318</v>
+        <v>2578.7655028494</v>
       </c>
       <c r="S13">
-        <v>0.001792267693800877</v>
+        <v>0.002053286660792214</v>
       </c>
       <c r="T13">
-        <v>0.001792267693800877</v>
+        <v>0.002053286660792214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H14">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N14">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O14">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P14">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q14">
-        <v>15292.19541674953</v>
+        <v>15406.81770113979</v>
       </c>
       <c r="R14">
-        <v>15292.19541674953</v>
+        <v>138661.3593102581</v>
       </c>
       <c r="S14">
-        <v>0.1398023190958106</v>
+        <v>0.1104061300356616</v>
       </c>
       <c r="T14">
-        <v>0.1398023190958106</v>
+        <v>0.1104061300356616</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H15">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N15">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O15">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P15">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q15">
-        <v>42016.14541283493</v>
+        <v>47034.18283219448</v>
       </c>
       <c r="R15">
-        <v>42016.14541283493</v>
+        <v>423307.6454897504</v>
       </c>
       <c r="S15">
-        <v>0.3841145373899285</v>
+        <v>0.3370496235253164</v>
       </c>
       <c r="T15">
-        <v>0.3841145373899285</v>
+        <v>0.3370496235253164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H16">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N16">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O16">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P16">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q16">
-        <v>511.588283666438</v>
+        <v>650.6039741822181</v>
       </c>
       <c r="R16">
-        <v>511.588283666438</v>
+        <v>5855.435767639962</v>
       </c>
       <c r="S16">
-        <v>0.00467697583830745</v>
+        <v>0.004662265002977623</v>
       </c>
       <c r="T16">
-        <v>0.00467697583830745</v>
+        <v>0.004662265002977623</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H17">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N17">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O17">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P17">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q17">
-        <v>204.7526045684638</v>
+        <v>410.1328272612695</v>
       </c>
       <c r="R17">
-        <v>204.7526045684638</v>
+        <v>3691.195445351424</v>
       </c>
       <c r="S17">
-        <v>0.001871862618772573</v>
+        <v>0.002939035116586819</v>
       </c>
       <c r="T17">
-        <v>0.001871862618772573</v>
+        <v>0.002939035116586819</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H18">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N18">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O18">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P18">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q18">
-        <v>163.1346627822757</v>
+        <v>327.326548871489</v>
       </c>
       <c r="R18">
-        <v>163.1346627822757</v>
+        <v>2945.9389398434</v>
       </c>
       <c r="S18">
-        <v>0.001491388486763328</v>
+        <v>0.002345640626107779</v>
       </c>
       <c r="T18">
-        <v>0.001491388486763328</v>
+        <v>0.002345640626107779</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H19">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N19">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O19">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P19">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q19">
-        <v>12724.99876037436</v>
+        <v>17600.49300904074</v>
       </c>
       <c r="R19">
-        <v>12724.99876037436</v>
+        <v>158404.4370813666</v>
       </c>
       <c r="S19">
-        <v>0.1163328278713422</v>
+        <v>0.1261261317906129</v>
       </c>
       <c r="T19">
-        <v>0.1163328278713422</v>
+        <v>0.1261261317906129</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H20">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N20">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O20">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P20">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q20">
-        <v>34962.63183430326</v>
+        <v>53731.07037300381</v>
       </c>
       <c r="R20">
-        <v>34962.63183430326</v>
+        <v>483579.6333570343</v>
       </c>
       <c r="S20">
-        <v>0.3196308233659469</v>
+        <v>0.3850398997138961</v>
       </c>
       <c r="T20">
-        <v>0.3196308233659469</v>
+        <v>0.3850398997138961</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H21">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N21">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O21">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P21">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q21">
-        <v>425.70475318064</v>
+        <v>743.2391893882871</v>
       </c>
       <c r="R21">
-        <v>425.70475318064</v>
+        <v>6689.152704494582</v>
       </c>
       <c r="S21">
-        <v>0.003891822601192825</v>
+        <v>0.005326094212507773</v>
       </c>
       <c r="T21">
-        <v>0.003891822601192825</v>
+        <v>0.005326094212507773</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H22">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N22">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O22">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P22">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q22">
-        <v>0.7112515414771614</v>
+        <v>1.153279027419444</v>
       </c>
       <c r="R22">
-        <v>0.7112515414771614</v>
+        <v>10.379511246775</v>
       </c>
       <c r="S22">
-        <v>6.502311293384773E-06</v>
+        <v>8.264462962994153E-06</v>
       </c>
       <c r="T22">
-        <v>6.502311293384773E-06</v>
+        <v>8.264462962994151E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H23">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N23">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O23">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P23">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q23">
-        <v>0.5666828054119002</v>
+        <v>0.9204306966888889</v>
       </c>
       <c r="R23">
-        <v>0.5666828054119002</v>
+        <v>8.283876270199999</v>
       </c>
       <c r="S23">
-        <v>5.180653806027755E-06</v>
+        <v>6.595858610044447E-06</v>
       </c>
       <c r="T23">
-        <v>5.180653806027755E-06</v>
+        <v>6.595858610044447E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H24">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N24">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O24">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P24">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q24">
-        <v>44.2029785295597</v>
+        <v>49.49196482299256</v>
       </c>
       <c r="R24">
-        <v>44.2029785295597</v>
+        <v>445.427683406933</v>
       </c>
       <c r="S24">
-        <v>0.0004041067185556742</v>
+        <v>0.0003546622287588608</v>
       </c>
       <c r="T24">
-        <v>0.0004041067185556742</v>
+        <v>0.0003546622287588608</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H25">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N25">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O25">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P25">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q25">
-        <v>121.4501072582534</v>
+        <v>151.0898725073484</v>
       </c>
       <c r="R25">
-        <v>121.4501072582534</v>
+        <v>1359.808852566136</v>
       </c>
       <c r="S25">
-        <v>0.001110305367307933</v>
+        <v>0.00108271860125169</v>
       </c>
       <c r="T25">
-        <v>0.001110305367307933</v>
+        <v>0.00108271860125169</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H26">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N26">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O26">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P26">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q26">
-        <v>1.478775630483578</v>
+        <v>2.089962354882889</v>
       </c>
       <c r="R26">
-        <v>1.478775630483578</v>
+        <v>18.809661193946</v>
       </c>
       <c r="S26">
-        <v>1.351907014852398E-05</v>
+        <v>1.497678884756113E-05</v>
       </c>
       <c r="T26">
-        <v>1.351907014852398E-05</v>
+        <v>1.497678884756113E-05</v>
       </c>
     </row>
   </sheetData>
